--- a/Excel/Map.xlsx
+++ b/Excel/Map.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21708"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6702EC0-FEA0-4688-A859-217BE9B7F2C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB974950-F81A-43CE-AC87-5C18232E9002}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="55">
   <si>
     <t>AppType.ClientH |  AppType.AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(0,0,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LeftPos2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,22 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(-18,0,-68.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-6.9,0,-68.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-5.8,0,-68.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-17.4,0,-68.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RightPos1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,22 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(-18,0,81.8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-6.9,0,81.8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-5.8,0,81.8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-17.4,0,81.8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s_左阵营</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(0,180,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东六B222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,11 +162,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(-28,30,-68.5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(-28,30,81.8)</t>
+    <t>(-190.213,22.7,-105.371)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2.598,100.722,2.138)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-189.918,22.3,-93.681)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(6.221,82.811,1.864)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-194.378,23.1,-117.852)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0.693,119.084,1.223)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-207.896,22.9,-97.318)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2.995,91.601,1.746)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-209.398,23.032,-109.695)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-0.078,105.301,0.391)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(161.660,15.77,-208.793)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-2.831,-63.55,0.232)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(154.996,15.76,-222.977)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-2.98,-75.32001,-0.268)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(168.9116,15.7,-195.826)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-0.377,-44.988,-0.695)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(177.538,15,-222.846)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-1.745,-73.983,0.297)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(183.9516,15.17,-211)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-2.765,-59.335,1.999)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -584,64 +616,64 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -663,58 +695,58 @@
         <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -797,70 +829,70 @@
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="M6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="O6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="R6" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -870,70 +902,70 @@
         <v>1002</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="N7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="R7" s="1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
